--- a/UML/クラスwithメソッド命名.xlsx
+++ b/UML/クラスwithメソッド命名.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ohs45025\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ohs45025\Documents\ev3\2016-ETrob\UML\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="134">
   <si>
     <t>変換前</t>
     <rPh sb="0" eb="2">
@@ -524,10 +524,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>走行距離取得</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>走行角度取得</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -556,6 +552,14 @@
     <rPh sb="0" eb="2">
       <t>ブンルイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本体状態管理者</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BodyStateAdministrator_ohs</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -889,7 +893,7 @@
   <dimension ref="A2:C70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -900,7 +904,7 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -971,7 +975,10 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>132</v>
+      </c>
+      <c r="C9" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -1203,22 +1210,22 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
@@ -1234,17 +1241,17 @@
         <v>14</v>
       </c>
       <c r="B49" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
